--- a/data-result/results-campaigns.xlsx
+++ b/data-result/results-campaigns.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Documents/Chaper2/github-code/segmentation-3D/data-result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017B6AB9-B0B7-B74C-A367-B648B2CF6CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D178495F-8208-5040-AE53-D372668E9F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22280" yWindow="-17400" windowWidth="23720" windowHeight="14400" xr2:uid="{BC55022D-C9CA-B946-A802-96155E458C4D}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="24460" windowHeight="15500" xr2:uid="{BC55022D-C9CA-B946-A802-96155E458C4D}"/>
   </bookViews>
   <sheets>
     <sheet name="flights-points" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="128">
   <si>
     <t>8-5_31-86</t>
   </si>
@@ -398,6 +398,50 @@
   </si>
   <si>
     <t>15-2_9-51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max-illumiantion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>min-illumiantion</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>moisture</t>
+  </si>
+  <si>
+    <t>max-wind-speed</t>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +454,7 @@
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
     <numFmt numFmtId="178" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -446,6 +490,13 @@
       <sz val="12"/>
       <color theme="9"/>
       <name val="TimesNewRomanPSMT"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -561,7 +612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,6 +721,15 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,15 +1045,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB03C220-F623-D149-AB9B-5D0901E8AA64}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="10" max="12" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="A1" s="35" t="s">
         <v>114</v>
       </c>
@@ -1018,8 +1081,29 @@
       <c r="H1" s="35" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="34" t="s">
         <v>106</v>
       </c>
@@ -1044,8 +1128,29 @@
       <c r="H2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1">
+        <v>56</v>
+      </c>
+      <c r="L2" s="1">
+        <v>55.5</v>
+      </c>
+      <c r="M2" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="N2" s="1">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="21" t="s">
         <v>103</v>
       </c>
@@ -1070,8 +1175,29 @@
       <c r="H3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1">
+        <v>55.6</v>
+      </c>
+      <c r="L3" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="30" t="s">
         <v>100</v>
       </c>
@@ -1096,8 +1222,29 @@
       <c r="H4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1">
+        <v>57.4</v>
+      </c>
+      <c r="L4" s="1">
+        <v>56</v>
+      </c>
+      <c r="M4" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="N4" s="1">
+        <v>24</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="14" t="s">
         <v>97</v>
       </c>
@@ -1122,8 +1269,29 @@
       <c r="H5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1">
+        <v>56</v>
+      </c>
+      <c r="L5" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="M5" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="14" t="s">
         <v>94</v>
       </c>
@@ -1148,8 +1316,29 @@
       <c r="H6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="L6" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="N6" s="1">
+        <v>29</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="23" t="s">
         <v>91</v>
       </c>
@@ -1174,8 +1363,29 @@
       <c r="H7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>54.1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>33</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="14" t="s">
         <v>88</v>
       </c>
@@ -1200,8 +1410,29 @@
       <c r="H8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8" s="1">
+        <v>52.8</v>
+      </c>
+      <c r="L8" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="N8" s="1">
+        <v>27</v>
+      </c>
+      <c r="O8" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="21" t="s">
         <v>85</v>
       </c>
@@ -1226,8 +1457,29 @@
       <c r="H9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1">
+        <v>55</v>
+      </c>
+      <c r="L9" s="1">
+        <v>54.6</v>
+      </c>
+      <c r="M9" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="N9" s="1">
+        <v>24</v>
+      </c>
+      <c r="O9" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="14" t="s">
         <v>82</v>
       </c>
@@ -1252,8 +1504,29 @@
       <c r="H10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1">
+        <v>55.6</v>
+      </c>
+      <c r="L10" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="M10" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="N10" s="1">
+        <v>24</v>
+      </c>
+      <c r="O10" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="14" t="s">
         <v>79</v>
       </c>
@@ -1278,8 +1551,29 @@
       <c r="H11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="L11" s="1">
+        <v>54.6</v>
+      </c>
+      <c r="M11" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="N11" s="1">
+        <v>24</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="14" t="s">
         <v>76</v>
       </c>
@@ -1304,8 +1598,29 @@
       <c r="H12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>51</v>
+      </c>
+      <c r="L12" s="1">
+        <v>50.9</v>
+      </c>
+      <c r="M12" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="N12" s="1">
+        <v>27</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="14" t="s">
         <v>73</v>
       </c>
@@ -1330,8 +1645,29 @@
       <c r="H13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1">
+        <v>51.1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>50.8</v>
+      </c>
+      <c r="M13" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="N13" s="1">
+        <v>27</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="14" t="s">
         <v>70</v>
       </c>
@@ -1356,8 +1692,29 @@
       <c r="H14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="L14" s="1">
+        <v>48.2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="N14" s="1">
+        <v>28</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="14" t="s">
         <v>67</v>
       </c>
@@ -1382,8 +1739,29 @@
       <c r="H15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1">
+        <v>47.7</v>
+      </c>
+      <c r="L15" s="1">
+        <v>47</v>
+      </c>
+      <c r="M15" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>28</v>
+      </c>
+      <c r="O15" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
@@ -1408,8 +1786,29 @@
       <c r="H16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="M16" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="N16" s="1">
+        <v>28</v>
+      </c>
+      <c r="O16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="14" t="s">
         <v>62</v>
       </c>
@@ -1434,8 +1833,29 @@
       <c r="H17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1">
+        <v>46.8</v>
+      </c>
+      <c r="L17" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="M17" s="1">
+        <v>10</v>
+      </c>
+      <c r="N17" s="1">
+        <v>28</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="14" t="s">
         <v>59</v>
       </c>
@@ -1460,8 +1880,29 @@
       <c r="H18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>15</v>
+      </c>
+      <c r="K18" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>50</v>
+      </c>
+      <c r="M18" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="N18" s="1">
+        <v>27</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="14" t="s">
         <v>56</v>
       </c>
@@ -1486,8 +1927,29 @@
       <c r="H19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="L19" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="M19" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N19" s="1">
+        <v>27</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="14" t="s">
         <v>53</v>
       </c>
@@ -1512,8 +1974,29 @@
       <c r="H20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>92</v>
+      </c>
+      <c r="J20">
+        <v>30</v>
+      </c>
+      <c r="K20" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="L20" s="1">
+        <v>37.4</v>
+      </c>
+      <c r="M20" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="N20" s="1">
+        <v>28</v>
+      </c>
+      <c r="O20" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="14" t="s">
         <v>50</v>
       </c>
@@ -1538,8 +2021,29 @@
       <c r="H21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>92</v>
+      </c>
+      <c r="J21">
+        <v>30</v>
+      </c>
+      <c r="K21" s="1">
+        <v>36.6</v>
+      </c>
+      <c r="L21" s="1">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="M21" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="N21" s="1">
+        <v>28</v>
+      </c>
+      <c r="O21" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
@@ -1564,8 +2068,29 @@
       <c r="H22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>92</v>
+      </c>
+      <c r="J22">
+        <v>30</v>
+      </c>
+      <c r="K22" s="1">
+        <v>45.8</v>
+      </c>
+      <c r="L22" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="M22" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="N22" s="1">
+        <v>25</v>
+      </c>
+      <c r="O22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="14" t="s">
         <v>44</v>
       </c>
@@ -1590,8 +2115,29 @@
       <c r="H23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>92</v>
+      </c>
+      <c r="J23">
+        <v>30</v>
+      </c>
+      <c r="K23" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="L23" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="M23" s="1">
+        <v>14</v>
+      </c>
+      <c r="N23" s="1">
+        <v>25</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="14" t="s">
         <v>41</v>
       </c>
@@ -1616,8 +2162,29 @@
       <c r="H24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>92</v>
+      </c>
+      <c r="J24">
+        <v>30</v>
+      </c>
+      <c r="K24" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="L24" s="1">
+        <v>43.8</v>
+      </c>
+      <c r="M24" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="N24" s="1">
+        <v>26</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="14" t="s">
         <v>38</v>
       </c>
@@ -1642,8 +2209,29 @@
       <c r="H25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>92</v>
+      </c>
+      <c r="J25">
+        <v>30</v>
+      </c>
+      <c r="K25" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="L25" s="1">
+        <v>45.1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="N25" s="1">
+        <v>26</v>
+      </c>
+      <c r="O25" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="14" t="s">
         <v>35</v>
       </c>
@@ -1668,8 +2256,29 @@
       <c r="H26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>92</v>
+      </c>
+      <c r="J26">
+        <v>50</v>
+      </c>
+      <c r="K26" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="L26" s="1">
+        <v>36.1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="N26" s="1">
+        <v>28</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="14" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +2303,29 @@
       <c r="H27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>92</v>
+      </c>
+      <c r="J27">
+        <v>50</v>
+      </c>
+      <c r="K27" s="1">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="L27" s="1">
+        <v>35.6</v>
+      </c>
+      <c r="M27" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="N27" s="1">
+        <v>28</v>
+      </c>
+      <c r="O27" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="14" t="s">
         <v>29</v>
       </c>
@@ -1720,8 +2350,29 @@
       <c r="H28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>92</v>
+      </c>
+      <c r="J28">
+        <v>50</v>
+      </c>
+      <c r="K28" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="L28" s="1">
+        <v>43.9</v>
+      </c>
+      <c r="M28" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="N28" s="1">
+        <v>26</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="14" t="s">
         <v>26</v>
       </c>
@@ -1746,8 +2397,29 @@
       <c r="H29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>92</v>
+      </c>
+      <c r="J29">
+        <v>50</v>
+      </c>
+      <c r="K29" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="M29" s="1">
+        <v>15</v>
+      </c>
+      <c r="N29" s="1">
+        <v>26</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="14" t="s">
         <v>23</v>
       </c>
@@ -1772,8 +2444,29 @@
       <c r="H30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>92</v>
+      </c>
+      <c r="J30">
+        <v>50</v>
+      </c>
+      <c r="K30" s="1">
+        <v>43.9</v>
+      </c>
+      <c r="L30" s="1">
+        <v>43.3</v>
+      </c>
+      <c r="M30" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="N30" s="1">
+        <v>27</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="14" t="s">
         <v>20</v>
       </c>
@@ -1798,8 +2491,29 @@
       <c r="H31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="17">
+      <c r="I31">
+        <v>92</v>
+      </c>
+      <c r="J31">
+        <v>50</v>
+      </c>
+      <c r="K31" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="L31" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="N31" s="1">
+        <v>27</v>
+      </c>
+      <c r="O31" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="17">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -1824,8 +2538,27 @@
       <c r="H32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="17">
+      <c r="I32">
+        <v>31</v>
+      </c>
+      <c r="J32" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="38">
+        <v>0</v>
+      </c>
+      <c r="L32" s="38">
+        <v>0</v>
+      </c>
+      <c r="M32" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="N32" s="38">
+        <v>52</v>
+      </c>
+      <c r="O32" s="38"/>
+    </row>
+    <row r="33" spans="1:15" ht="17">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -1850,8 +2583,27 @@
       <c r="H33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="17">
+      <c r="I33">
+        <v>31</v>
+      </c>
+      <c r="J33" t="s">
+        <v>118</v>
+      </c>
+      <c r="K33" s="38">
+        <v>0</v>
+      </c>
+      <c r="L33" s="38">
+        <v>0</v>
+      </c>
+      <c r="M33" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="N33" s="38">
+        <v>52</v>
+      </c>
+      <c r="O33" s="38"/>
+    </row>
+    <row r="34" spans="1:15" ht="17">
       <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
@@ -1876,8 +2628,27 @@
       <c r="H34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="17">
+      <c r="I34">
+        <v>31</v>
+      </c>
+      <c r="J34" t="s">
+        <v>119</v>
+      </c>
+      <c r="K34" s="38">
+        <v>0</v>
+      </c>
+      <c r="L34" s="38">
+        <v>0</v>
+      </c>
+      <c r="M34" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="N34" s="38">
+        <v>52</v>
+      </c>
+      <c r="O34" s="38"/>
+    </row>
+    <row r="35" spans="1:15" ht="17">
       <c r="A35" s="2" t="s">
         <v>8</v>
       </c>
@@ -1902,8 +2673,27 @@
       <c r="H35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="17">
+      <c r="I35">
+        <v>31</v>
+      </c>
+      <c r="J35" t="s">
+        <v>119</v>
+      </c>
+      <c r="K35" s="38">
+        <v>0</v>
+      </c>
+      <c r="L35" s="38">
+        <v>0</v>
+      </c>
+      <c r="M35" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="N35" s="38">
+        <v>52</v>
+      </c>
+      <c r="O35" s="38"/>
+    </row>
+    <row r="36" spans="1:15" ht="17">
       <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
@@ -1928,8 +2718,27 @@
       <c r="H36" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="17">
+      <c r="I36">
+        <v>31</v>
+      </c>
+      <c r="J36" t="s">
+        <v>120</v>
+      </c>
+      <c r="K36" s="38">
+        <v>0</v>
+      </c>
+      <c r="L36" s="38">
+        <v>0</v>
+      </c>
+      <c r="M36" s="38">
+        <v>0</v>
+      </c>
+      <c r="N36" s="38">
+        <v>52</v>
+      </c>
+      <c r="O36" s="38"/>
+    </row>
+    <row r="37" spans="1:15" ht="17">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -1954,6 +2763,25 @@
       <c r="H37" t="s">
         <v>0</v>
       </c>
+      <c r="I37">
+        <v>31</v>
+      </c>
+      <c r="J37" t="s">
+        <v>120</v>
+      </c>
+      <c r="K37" s="38">
+        <v>0</v>
+      </c>
+      <c r="L37" s="38">
+        <v>0</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="N37" s="38">
+        <v>52</v>
+      </c>
+      <c r="O37" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
